--- a/compare_data/input/mio_data_5.xlsx
+++ b/compare_data/input/mio_data_5.xlsx
@@ -57671,7 +57671,7 @@
       </c>
       <c r="I1610" t="inlineStr">
         <is>
-          <t>mobile</t>
+          <t>mobile_del</t>
         </is>
       </c>
     </row>
@@ -71441,7 +71441,7 @@
       </c>
       <c r="I2016" t="inlineStr">
         <is>
-          <t>mobile</t>
+          <t>mobile_del</t>
         </is>
       </c>
     </row>
